--- a/P6 Stroke Recurrence.xlsx
+++ b/P6 Stroke Recurrence.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eithnesexton\Desktop\Model Oct 2020\For Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eithnesexton\Desktop\Model Stroke Paper R1 4 Mar\For Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8040" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8040" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Rec12m" sheetId="2" r:id="rId1"/>
@@ -19,14 +19,15 @@
     <sheet name="Rec12m_OXVASC" sheetId="7" r:id="rId5"/>
     <sheet name="Rec_OXVASC" sheetId="8" r:id="rId6"/>
     <sheet name="RR_dem" sheetId="9" r:id="rId7"/>
-    <sheet name="Source Info" sheetId="3" r:id="rId8"/>
+    <sheet name="MetaData" sheetId="3" r:id="rId8"/>
+    <sheet name="Data Dictionary" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>&lt;65</t>
   </si>
@@ -43,32 +44,6 @@
     <t>Rec12m</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Mohan KM, Crichton SL, Grieve a P, Rudd a G, Wolfe CD a, Heuschmann PU. Frequency and predictors for the risk of stroke recurrence up to 10 years after stroke: the South London Stroke Register. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J Neurol Neurosurg Psychiatry</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. 2009;80(9):1012-1018. doi:10.1136/jnnp.2008.170456.</t>
-    </r>
-  </si>
-  <si>
     <t>Rec</t>
   </si>
   <si>
@@ -91,6 +66,36 @@
   </si>
   <si>
     <t>RRhr</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference information or contact name/institution </t>
+  </si>
+  <si>
+    <t>Population represented</t>
+  </si>
+  <si>
+    <t>Stroke events in population residing in Oxfordshire, UK</t>
+  </si>
+  <si>
+    <t>Data collection method</t>
+  </si>
+  <si>
+    <t>Year(s) of data collection</t>
+  </si>
+  <si>
+    <t>Sex and age range</t>
+  </si>
+  <si>
+    <t>Diagnostic criteria (stroke)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample size </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OXVASC </t>
   </si>
   <si>
     <r>
@@ -136,23 +141,64 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(9), 903–913. https://doi.org/10.1016/S1474-4422(15)00132-5</t>
+      <t>(9), 903–913. https://doi.org/10.1016/S1474-4422(15)00132-5. Table 3.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Base case analysis: </t>
-  </si>
-  <si>
-    <t>Table 3</t>
-  </si>
-  <si>
-    <t>OXVASC estimates used in sensitivity analysis</t>
-  </si>
-  <si>
-    <t>Table 2</t>
-  </si>
-  <si>
-    <t>Relative risk for stroke recurrence associated with dementia</t>
+    <r>
+      <t xml:space="preserve">Mohan KM, Crichton SL, Grieve a P, Rudd a G, Wolfe CD a, Heuschmann PU. Frequency and predictors for the risk of stroke recurrence up to 10 years after stroke: the South London Stroke Register. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J Neurol Neurosurg Psychiatry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 2009;80(9):1012-1018. doi:10.1136/jnnp.2008.170456. Table 2.</t>
+    </r>
+  </si>
+  <si>
+    <t>Population with stroke living in a defined area of South London</t>
+  </si>
+  <si>
+    <t>1 January 1995 to 31 December 2004</t>
+  </si>
+  <si>
+    <t>Men and Women, all age groups</t>
+  </si>
+  <si>
+    <t>Population-based case ascertainment based on multiple overlapping referral sources, with face to face data collection based on a standard form: see Mohan et al (2009) for details</t>
+  </si>
+  <si>
+    <t>Population-based case ascertainment based on multiple overlapping referral sources, and multiple methods of data collection - see Li et al (2015) for details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stroke was defined according to the World Health Organization (WHO) criteria, verified by a study physician. Recurrent event defined as a new neurological deficit, either 21 days or more after the initial event or occuring in a different vascular territory. </t>
+  </si>
+  <si>
+    <t>Diagnostic criteria (dementia)</t>
+  </si>
+  <si>
+    <t>April 1, 2002 - March 31, 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stroke defined according to the WHO criteria, based on assessment by a senior neurologist. Recurrent strokes ascertained through follow up visits and ongoing daily case ascertainement. Suspected recurrent events were reassessed by a study physician. </t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
   <si>
     <r>
@@ -198,8 +244,68 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(7), 722–726. https://doi.org/10.1136/jnnp-2012-304084</t>
+      <t>(7), 722–726. https://doi.org/10.1136/jnnp-2012-304084. Table 3</t>
     </r>
+  </si>
+  <si>
+    <t>Stroke admissions to Helsinki University Hospital</t>
+  </si>
+  <si>
+    <t>Men and Women, aged 55-85</t>
+  </si>
+  <si>
+    <t>Ischaemic stroke, ICD-9 codes 433 and 434 and ICD-10 codes I63.0–I63.9</t>
+  </si>
+  <si>
+    <t>1 December 1993 -  21 September 2006</t>
+  </si>
+  <si>
+    <t>DSM-III criteria</t>
+  </si>
+  <si>
+    <t>Structured interview, review of medical records, clinical examination and follow up through national registers - see Sibolt et al (2013) for details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South London Stroke Register (SLSR) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helsinki Stroke Ageing and Memory </t>
+  </si>
+  <si>
+    <t>Worksheet</t>
+  </si>
+  <si>
+    <t>Rec12m; Rec; Rec12m_all ages; Rec_all ages</t>
+  </si>
+  <si>
+    <t>Rec12m_OXVASC; Rec_OXVASC</t>
+  </si>
+  <si>
+    <t>RR_dem</t>
+  </si>
+  <si>
+    <t>Relative risk of recurrent stroke for dementia (point estimate)</t>
+  </si>
+  <si>
+    <t>Relative risk of recurrent stroke for dementia (lower confidence interval)</t>
+  </si>
+  <si>
+    <t>Relative risk of recurrent stroke for dementia (upper confidence interval)</t>
+  </si>
+  <si>
+    <t>Annual recurrent stroke rate</t>
+  </si>
+  <si>
+    <t>Annual recurrent stroke rate in the first year post-stroke</t>
+  </si>
+  <si>
+    <t>Total sample size</t>
+  </si>
+  <si>
+    <t>Variable name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description </t>
   </si>
 </sst>
 </file>
@@ -209,7 +315,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +325,14 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -252,16 +366,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,14 +692,14 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -648,10 +771,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -661,7 +784,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>1.6E-2</v>
       </c>
     </row>
@@ -672,7 +795,7 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>2.4E-2</v>
       </c>
     </row>
@@ -683,13 +806,13 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>2.9999999999999995E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -703,7 +826,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,7 +865,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -757,13 +880,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -820,7 +943,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -845,20 +968,20 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -880,62 +1003,238 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B14"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.44140625" customWidth="1"/>
+    <col min="2" max="2" width="46.21875" customWidth="1"/>
+    <col min="3" max="3" width="56.88671875" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>2874</v>
+      </c>
+      <c r="C10">
+        <v>2080</v>
+      </c>
+      <c r="D10">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>